--- a/Tables/Breusch_serial_corr_test.xlsx
+++ b/Tables/Breusch_serial_corr_test.xlsx
@@ -377,13 +377,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>52.6016820946287</v>
+        <v>56.9649566099313</v>
       </c>
       <c r="C2" t="n">
         <v>48</v>
       </c>
       <c r="D2" t="n">
-        <v>0.300480673426285</v>
+        <v>0.176022879953879</v>
       </c>
     </row>
   </sheetData>
